--- a/Overview - Space.xlsx
+++ b/Overview - Space.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A5FE52-409A-4510-AFF3-C9E058DF95E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A02D014-9205-4D29-87F5-5D495302AF84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AAD1FAE1-6B90-4A6C-91C2-DBC83F1146F1}"/>
   </bookViews>
@@ -623,7 +623,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Overview - Space.xlsx
+++ b/Overview - Space.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A02D014-9205-4D29-87F5-5D495302AF84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAAA913-5D33-4A2B-BBFE-EB9552642C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AAD1FAE1-6B90-4A6C-91C2-DBC83F1146F1}"/>
   </bookViews>
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>$VORB</t>
   </si>
@@ -157,6 +158,15 @@
   </si>
   <si>
     <t>BATS</t>
+  </si>
+  <si>
+    <t>$RDW</t>
+  </si>
+  <si>
+    <t>Redwire Corporation</t>
+  </si>
+  <si>
+    <t>Space &amp; satellite technology for commercial, research &amp; military applications</t>
   </si>
 </sst>
 </file>
@@ -311,6 +321,55 @@
           </cell>
           <cell r="D28">
             <v>39387</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="Financial Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="6">
+          <cell r="C6">
+            <v>3.95</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>63.852690000000003</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>252.21812550000001</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>-86.956999999999994</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>339.17512550000004</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28" t="str">
+            <v>Q322</v>
+          </cell>
+          <cell r="D28">
+            <v>39753</v>
           </cell>
         </row>
       </sheetData>
@@ -617,13 +676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E98E4FC-ECE8-4615-9E1C-D0805F818168}">
-  <dimension ref="B2:N15"/>
+  <dimension ref="B2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -632,7 +691,7 @@
     <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="51" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="66.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -848,97 +907,114 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1">
+        <f>[2]Main!$C$6</f>
+        <v>3.95</v>
+      </c>
+      <c r="G9" s="7">
+        <f>[2]Main!$C$7</f>
+        <v>63.852690000000003</v>
+      </c>
+      <c r="H9" s="7">
+        <f>[2]Main!$C$8</f>
+        <v>252.21812550000001</v>
+      </c>
+      <c r="I9" s="7">
+        <f>[2]Main!$C$11</f>
+        <v>-86.956999999999994</v>
+      </c>
+      <c r="J9" s="7">
+        <f>[2]Main!$C$12</f>
+        <v>339.17512550000004</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f>[2]Main!$C$28</f>
+        <v>Q322</v>
+      </c>
+      <c r="L9" s="9">
+        <f>[2]Main!$D$28</f>
+        <v>39753</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="1">
-        <v>20.59</v>
-      </c>
-      <c r="G12" s="1">
-        <v>59.55</v>
-      </c>
-      <c r="H12" s="1">
-        <v>20.43</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="1">
-        <v>13.17</v>
+        <v>20.59</v>
       </c>
       <c r="G13" s="1">
-        <v>272.72000000000003</v>
+        <v>59.55</v>
       </c>
       <c r="H13" s="1">
-        <v>13.08</v>
+        <v>20.43</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>36</v>
@@ -948,25 +1024,54 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13.17</v>
+      </c>
+      <c r="G14" s="1">
+        <v>272.72000000000003</v>
+      </c>
+      <c r="H14" s="1">
+        <v>13.08</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{51CEFDA4-F1EC-4E5E-B421-04688260A641}"/>
-    <hyperlink ref="I12" r:id="rId2" xr:uid="{D23C9084-8D55-4F01-A637-E876B24CD2A0}"/>
-    <hyperlink ref="I13" r:id="rId3" xr:uid="{AE3CCE2E-6DD8-4A1E-A0D3-2C66991F365E}"/>
+    <hyperlink ref="I13" r:id="rId2" xr:uid="{D23C9084-8D55-4F01-A637-E876B24CD2A0}"/>
+    <hyperlink ref="I14" r:id="rId3" xr:uid="{AE3CCE2E-6DD8-4A1E-A0D3-2C66991F365E}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{CC246645-0410-40B0-A071-B4E7B71E09D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId4"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
   <ignoredErrors>
     <ignoredError sqref="H5" formula="1"/>
   </ignoredErrors>

--- a/Overview - Space.xlsx
+++ b/Overview - Space.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAAA913-5D33-4A2B-BBFE-EB9552642C81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B45DD1-D10F-4142-824E-55A22AF3BD94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AAD1FAE1-6B90-4A6C-91C2-DBC83F1146F1}"/>
   </bookViews>
@@ -682,7 +682,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="N31" sqref="E7:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Overview - Space.xlsx
+++ b/Overview - Space.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B45DD1-D10F-4142-824E-55A22AF3BD94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44ABC4-5EE4-45E2-9ECB-2D0B3BBFFDEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AAD1FAE1-6B90-4A6C-91C2-DBC83F1146F1}"/>
   </bookViews>
@@ -682,7 +682,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="E7:N31"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Overview - Space.xlsx
+++ b/Overview - Space.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44ABC4-5EE4-45E2-9ECB-2D0B3BBFFDEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7979A9-7B8B-4DA2-972E-4B2588B95A3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AAD1FAE1-6B90-4A6C-91C2-DBC83F1146F1}"/>
   </bookViews>
@@ -235,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,10 +254,13 @@
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -292,7 +295,7 @@
         </row>
         <row r="6">
           <cell r="C6">
-            <v>1.66</v>
+            <v>0.34</v>
           </cell>
         </row>
         <row r="7">
@@ -302,7 +305,7 @@
         </row>
         <row r="8">
           <cell r="C8">
-            <v>556.79079073999992</v>
+            <v>114.04148726</v>
           </cell>
         </row>
         <row r="11">
@@ -312,7 +315,7 @@
         </row>
         <row r="12">
           <cell r="C12">
-            <v>534.06979073999992</v>
+            <v>91.320487259999993</v>
           </cell>
         </row>
         <row r="28">
@@ -682,7 +685,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -708,7 +711,7 @@
       <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -746,15 +749,15 @@
       <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="10">
-        <v>4.5149999999999997</v>
+      <c r="F3" s="12">
+        <v>4.04</v>
       </c>
       <c r="G3" s="7">
         <v>473.26</v>
       </c>
       <c r="H3" s="7">
         <f>F3*G3</f>
-        <v>2136.7689</v>
+        <v>1911.9703999999999</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -775,15 +778,15 @@
       <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="10">
-        <v>4.2519999999999998</v>
+      <c r="F4" s="12">
+        <v>4.05</v>
       </c>
       <c r="G4" s="7">
         <v>274.56</v>
       </c>
       <c r="H4" s="7">
         <f>F4*G4</f>
-        <v>1167.42912</v>
+        <v>1111.9679999999998</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
@@ -805,9 +808,9 @@
       <c r="E5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="12">
         <f>[1]Main!$C$6</f>
-        <v>1.66</v>
+        <v>0.34</v>
       </c>
       <c r="G5" s="7">
         <f>[1]Main!$C$7</f>
@@ -815,7 +818,7 @@
       </c>
       <c r="H5" s="8">
         <f>[1]Main!$C$8</f>
-        <v>556.79079073999992</v>
+        <v>114.04148726</v>
       </c>
       <c r="I5" s="8">
         <f>[1]Main!$C$11</f>
@@ -823,7 +826,7 @@
       </c>
       <c r="J5" s="8">
         <f>[1]Main!$C$12</f>
-        <v>534.06979073999992</v>
+        <v>91.320487259999993</v>
       </c>
       <c r="K5" s="9" t="str">
         <f>[1]Main!$C$28</f>
@@ -850,15 +853,15 @@
       <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1">
-        <v>0.51</v>
+      <c r="F6" s="12">
+        <v>0.42499999999999999</v>
       </c>
       <c r="G6" s="7">
         <v>211.93</v>
       </c>
       <c r="H6" s="7">
         <f>F6*G6</f>
-        <v>108.0843</v>
+        <v>90.070250000000001</v>
       </c>
       <c r="I6" s="7"/>
       <c r="K6" s="5"/>
@@ -880,15 +883,15 @@
       <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="10">
-        <v>0.92669999999999997</v>
+      <c r="F7" s="12">
+        <v>0.58499999999999996</v>
       </c>
       <c r="G7" s="7">
         <v>84.15</v>
       </c>
       <c r="H7" s="7">
         <f>F7*G7</f>
-        <v>77.981805000000008</v>
+        <v>49.22775</v>
       </c>
       <c r="I7" s="7"/>
       <c r="K7" s="5"/>
@@ -900,6 +903,7 @@
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -919,9 +923,8 @@
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1">
-        <f>[2]Main!$C$6</f>
-        <v>3.95</v>
+      <c r="F9" s="12">
+        <v>3.03</v>
       </c>
       <c r="G9" s="7">
         <f>[2]Main!$C$7</f>
@@ -1016,7 +1019,7 @@
       <c r="H13" s="1">
         <v>20.43</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K13" s="5"/>
@@ -1044,7 +1047,7 @@
       <c r="H14" s="1">
         <v>13.08</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="K14" s="5"/>
